--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain - 複製.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain - 複製.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC88A082-C23A-4CA3-9A12-E7B196CEDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD36AA7-CA99-45DC-A80B-803ED02B18FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="350" yWindow="850" windowWidth="13150" windowHeight="9920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -2252,14 +2252,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>(月底報表產表批次)LM003Batch 撥款/還款金額比較月報表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底報表產表批次)LM004Batch 長中短期放款到期明細表／追蹤表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>(月底報表產表批次)LM007 放款利息收入成長表</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2272,30 +2264,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>(月底報表產表批次)LM011Batch 表外放款承諾資料產出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底報表產表批次)LM012Batch 放款餘額利率分佈表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底報表產表批次)LM013Batch 金檢報表(放款種類表)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底報表產表批次)LM014Batch 平均利率月報表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>(月底報表產表批次)LM015 信用曝險分佈報表</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>(月底報表產表批次)LM016Batch 寬限條件控管繳息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>(月底報表產表批次)LM018 專案放款餘額及利息收入</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2328,22 +2300,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>(月底報表產表批次)LM030Batch 轉催收明細總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底報表產表批次)LM031Batch 企業動用率</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>(月底報表產表批次)LM032 逾期案件滾動率明細</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>(月底報表產表批次)LM033Batch 新撥案件明細</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>(月底報表產表批次)LM035 地區逾放比</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2361,10 +2321,6 @@
   </si>
   <si>
     <t>(月底報表產表批次)LM039 催收案件明細</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底報表產表批次)LM040  地區別正常戶金額</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -2638,51 +2594,6 @@
   </si>
   <si>
     <t>(月報)L8402  BRel 「聯徵授信「同一關係企業及集團企業」資料報送檔</t>
-  </si>
-  <si>
-    <t>(月報)L7901 LNM34AP</t>
-  </si>
-  <si>
-    <t>(月報)L7901 LNM34BP</t>
-  </si>
-  <si>
-    <t>(月報)L7901 LNM34CP</t>
-  </si>
-  <si>
-    <t>(月報)L7901 LNM34DP</t>
-  </si>
-  <si>
-    <t>(月報)L7901 LNM34EP</t>
-  </si>
-  <si>
-    <t>(月報)L7901 LNM34GP</t>
-  </si>
-  <si>
-    <t>(月報)L7902 LNM39AP 清單1：表內放款與應收帳款-資產基本資料與計算原始有效利率用</t>
-  </si>
-  <si>
-    <t>(月報)L7902 LNM39BP 清單2：台幣放款-計算原始有效利率用</t>
-  </si>
-  <si>
-    <t>(月報)L7902 LNM39CP 清單3：台幣放款-計算原始有效利率用</t>
-  </si>
-  <si>
-    <t>(月報)L7902 LNM39DP 清單4：放款與AR-估計回收率用</t>
-  </si>
-  <si>
-    <t>(月報)L7902 LNM39FP 清單6：放款與應收帳款-協商戶用</t>
-  </si>
-  <si>
-    <t>(月報)L7902 LNM39GP 清單7：放款與應收帳款-stage轉換用</t>
-  </si>
-  <si>
-    <t>(月報)L7902 LNM39HP 清單8：放款與應收帳款-風險參數用</t>
-  </si>
-  <si>
-    <t>(月報)L7902 LNM39IP 清單9：表外放款與應收帳款-資產基本資料與計算原始有效利率用</t>
-  </si>
-  <si>
-    <t>(月報)L7902 LNM39JP 清單10：借新還舊</t>
   </si>
   <si>
     <r>
@@ -2744,7 +2655,189 @@
   </si>
   <si>
     <r>
-      <t>(月底報表產表批次)LM017金融機構承作購置高價住宅貸款統計</t>
+      <t xml:space="preserve">(月底報表產表批次)LM073 央行報送明細 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(已取消)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日終批次)維護 TxHoliday 假日檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)L8401 LB204 聯徵授信餘額日報檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)L8401 LB211 聯徵每日授信餘額變動資料檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)LD003 放款明細餘額總表(日)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)LD004 企金戶還本收據及繳息收據</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)LD005 暫收支票收據列印（個人戶）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)LD006 三階放款明細統計</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)LD007 放款專員明細統計</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)LD008 放款餘額總表,關係人放款餘額總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)LD009 放款授信日報表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)LD010 介紹人換算業績報酬檢核表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日終批次)維護 AmlCustList AML每日有效客戶名單</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底日日終批次)維護 MonthlyLM028月報工作檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底日日終批次)維護 MonthlyLM032月報工作檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>eodFlow</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyRptFlow</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底日日終批次)維護 MonthlyLoanBal每月放款餘額檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7901 LNM34AP３４號公報欄位清單產生作業欄位清單１</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7901 LNM34BP３４號公報欄位清單產生作業欄位清單２</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7901 LNM34CP３４號公報欄位清單產生作業欄位清單３</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7901 LNM34DP３４號公報欄位清單產生作業欄位清單４</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7901 LNM34EP３４號公報欄位清單產生作業欄位清單５</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7901 LNM34GP３４號公報欄位清單產生作業欄位清單６</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7902 LNM39APＩＦＲＳ９欄位清單產生作業清單1：表內放款與應收帳款-資產基本資料與計算原始有效利率用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7902 LNM39BPＩＦＲＳ９欄位清單產生作業清單2：台幣放款-計算原始有效利率用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7902 LNM39CPＩＦＲＳ９欄位清單產生作業清單3：台幣放款-計算原始有效利率用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7902 LNM39DPＩＦＲＳ９欄位清單產生作業清單4：放款與AR-估計回收率用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7902 LNM39FPＩＦＲＳ９欄位清單產生作業清單6：放款與應收帳款-協商戶用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7902 LNM39GPＩＦＲＳ９欄位清單產生作業清單7：放款與應收帳款-stage轉換用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7902 LNM39HPＩＦＲＳ９欄位清單產生作業清單8：放款與應收帳款-風險參數用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7902 LNM39IPＩＦＲＳ９欄位清單產生作業清單9：表外放款與應收帳款-資產基本資料與計算原始有效利率用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月報)L7902 LNM39JPＩＦＲＳ９欄位清單產生作業清單10：借新還舊</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM030 轉催收明細總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM031 企業動用率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM033 新撥案件明細</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(月底報表產表批次)LM034 新增逾放案件明細</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> (已取消,已併入L9707)</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM040 地區別正常戶金額</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM016 寬限條件控管繳息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(月底報表產表批次)LM017 金融機構承作購置高價住宅貸款統計</t>
     </r>
     <r>
       <rPr>
@@ -2770,105 +2863,27 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(月底報表產表批次)LM034新增逾放案件明細</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> (已取消,已併入L9707)</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(月底報表產表批次)LM073 央行報送明細 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(已取消)</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日終批次)維護 TxHoliday 假日檔</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)L8401 LB204 聯徵授信餘額日報檔</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)L8401 LB211 聯徵每日授信餘額變動資料檔</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD003 放款明細餘額總表(日)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD004 企金戶還本收據及繳息收據</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD005 暫收支票收據列印（個人戶）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD006 三階放款明細統計</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD007 放款專員明細統計</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD008 放款餘額總表,關係人放款餘額總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD009 放款授信日報表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD010 介紹人換算業績報酬檢核表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日終批次)維護 AmlCustList AML每日有效客戶名單</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底日日終批次)維護 MonthlyLM028月報工作檔</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底日日終批次)維護 MonthlyLM032月報工作檔</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>eodFlow</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyRptFlow</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(月底日日終批次)維護 MonthlyLoanBal每月放款餘額檔</t>
+    <t>(月底報表產表批次)LM014 平均利率月報表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM011 表外放款承諾資料產出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM012 放款餘額利率分佈表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM013 金檢報表(放款種類表)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM004 長中短期放款到期明細表／追蹤表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底報表產表批次)LM003 撥款/還款金額比較月報表</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3974,8 +3989,8 @@
   <dimension ref="A1:I548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3992,7 +4007,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>26</v>
@@ -4030,10 +4045,10 @@
         <v>157</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -4124,7 +4139,7 @@
         <v>530</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>671</v>
@@ -4248,7 +4263,7 @@
         <v>646</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>655</v>
@@ -4262,7 +4277,7 @@
         <v>645</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>655</v>
@@ -4276,7 +4291,7 @@
         <v>647</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>655</v>
@@ -4290,7 +4305,7 @@
         <v>648</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>655</v>
@@ -4304,7 +4319,7 @@
         <v>649</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>655</v>
@@ -4318,7 +4333,7 @@
         <v>650</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>655</v>
@@ -4332,7 +4347,7 @@
         <v>651</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="I21" s="33" t="s">
         <v>655</v>
@@ -4346,7 +4361,7 @@
         <v>652</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="I22" s="33" t="s">
         <v>655</v>
@@ -4360,7 +4375,7 @@
         <v>653</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="I23" s="33" t="s">
         <v>655</v>
@@ -4371,13 +4386,13 @@
         <v>537</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -4388,7 +4403,7 @@
         <v>654</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="I25" s="33" t="s">
         <v>655</v>
@@ -4425,7 +4440,7 @@
         <v>36</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>48</v>
@@ -4445,7 +4460,7 @@
         <v>36</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>48</v>
@@ -4485,7 +4500,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>48</v>
@@ -4505,7 +4520,7 @@
         <v>65</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>48</v>
@@ -5381,20 +5396,20 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B78" s="28" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="28" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B79" s="28" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="28" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
@@ -5436,7 +5451,7 @@
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="36" t="s">
-        <v>682</v>
+        <v>815</v>
       </c>
       <c r="I82" s="33" t="s">
         <v>662</v>
@@ -5451,7 +5466,7 @@
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="36" t="s">
-        <v>683</v>
+        <v>814</v>
       </c>
       <c r="I83" s="33" t="s">
         <v>662</v>
@@ -5466,7 +5481,7 @@
       </c>
       <c r="C84" s="38"/>
       <c r="D84" s="36" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I84" s="33" t="s">
         <v>662</v>
@@ -5481,7 +5496,7 @@
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="36" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I85" s="33" t="s">
         <v>662</v>
@@ -5496,7 +5511,7 @@
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="36" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I86" s="33" t="s">
         <v>662</v>
@@ -5511,7 +5526,7 @@
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="36" t="s">
-        <v>687</v>
+        <v>811</v>
       </c>
       <c r="I87" s="33" t="s">
         <v>662</v>
@@ -5526,7 +5541,7 @@
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="36" t="s">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="I88" s="33" t="s">
         <v>662</v>
@@ -5541,7 +5556,7 @@
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="36" t="s">
-        <v>689</v>
+        <v>813</v>
       </c>
       <c r="I89" s="33" t="s">
         <v>662</v>
@@ -5556,7 +5571,7 @@
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="36" t="s">
-        <v>690</v>
+        <v>810</v>
       </c>
       <c r="I90" s="33" t="s">
         <v>662</v>
@@ -5571,7 +5586,7 @@
       </c>
       <c r="C91" s="38"/>
       <c r="D91" s="36" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="I91" s="33" t="s">
         <v>662</v>
@@ -5586,7 +5601,7 @@
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="36" t="s">
-        <v>692</v>
+        <v>808</v>
       </c>
       <c r="I92" s="33" t="s">
         <v>662</v>
@@ -5601,7 +5616,7 @@
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="36" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="I93" s="33" t="s">
         <v>662</v>
@@ -5616,7 +5631,7 @@
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="36" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="I94" s="33" t="s">
         <v>662</v>
@@ -5631,7 +5646,7 @@
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="36" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="I95" s="33" t="s">
         <v>662</v>
@@ -5646,7 +5661,7 @@
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="36" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="I96" s="33" t="s">
         <v>662</v>
@@ -5661,7 +5676,7 @@
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="36" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="I97" s="33" t="s">
         <v>662</v>
@@ -5676,7 +5691,7 @@
       </c>
       <c r="C98" s="38"/>
       <c r="D98" s="36" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="I98" s="33" t="s">
         <v>662</v>
@@ -5691,7 +5706,7 @@
       </c>
       <c r="C99" s="38"/>
       <c r="D99" s="36" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="I99" s="33" t="s">
         <v>662</v>
@@ -5706,7 +5721,7 @@
       </c>
       <c r="C100" s="38"/>
       <c r="D100" s="36" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="I100" s="33" t="s">
         <v>662</v>
@@ -5721,7 +5736,7 @@
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="36" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="I101" s="33" t="s">
         <v>662</v>
@@ -5736,7 +5751,7 @@
       </c>
       <c r="C102" s="38"/>
       <c r="D102" s="36" t="s">
-        <v>701</v>
+        <v>803</v>
       </c>
       <c r="I102" s="33" t="s">
         <v>662</v>
@@ -5751,7 +5766,7 @@
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="36" t="s">
-        <v>702</v>
+        <v>804</v>
       </c>
       <c r="I103" s="33" t="s">
         <v>662</v>
@@ -5766,7 +5781,7 @@
       </c>
       <c r="C104" s="38"/>
       <c r="D104" s="36" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="I104" s="33" t="s">
         <v>662</v>
@@ -5781,7 +5796,7 @@
       </c>
       <c r="C105" s="38"/>
       <c r="D105" s="36" t="s">
-        <v>704</v>
+        <v>805</v>
       </c>
       <c r="I105" s="33" t="s">
         <v>662</v>
@@ -5796,7 +5811,7 @@
       </c>
       <c r="C106" s="38"/>
       <c r="D106" s="36" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="I106" s="33" t="s">
         <v>662</v>
@@ -5811,7 +5826,7 @@
       </c>
       <c r="C107" s="38"/>
       <c r="D107" s="36" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I107" s="33" t="s">
         <v>662</v>
@@ -5826,7 +5841,7 @@
       </c>
       <c r="C108" s="38"/>
       <c r="D108" s="36" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="I108" s="33" t="s">
         <v>662</v>
@@ -5841,7 +5856,7 @@
       </c>
       <c r="C109" s="38"/>
       <c r="D109" s="36" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="I109" s="33" t="s">
         <v>662</v>
@@ -5856,7 +5871,7 @@
       </c>
       <c r="C110" s="38"/>
       <c r="D110" s="36" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="I110" s="33" t="s">
         <v>662</v>
@@ -5871,7 +5886,7 @@
       </c>
       <c r="C111" s="38"/>
       <c r="D111" s="36" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="I111" s="33" t="s">
         <v>662</v>
@@ -5886,7 +5901,7 @@
       </c>
       <c r="C112" s="38"/>
       <c r="D112" s="36" t="s">
-        <v>710</v>
+        <v>807</v>
       </c>
       <c r="I112" s="33" t="s">
         <v>662</v>
@@ -5901,7 +5916,7 @@
       </c>
       <c r="C113" s="38"/>
       <c r="D113" s="36" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="I113" s="33" t="s">
         <v>662</v>
@@ -5916,7 +5931,7 @@
       </c>
       <c r="C114" s="38"/>
       <c r="D114" s="36" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="I114" s="33" t="s">
         <v>662</v>
@@ -5931,7 +5946,7 @@
       </c>
       <c r="C115" s="38"/>
       <c r="D115" s="36" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="I115" s="33" t="s">
         <v>662</v>
@@ -5946,7 +5961,7 @@
       </c>
       <c r="C116" s="38"/>
       <c r="D116" s="36" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="I116" s="33" t="s">
         <v>662</v>
@@ -5961,7 +5976,7 @@
       </c>
       <c r="C117" s="38"/>
       <c r="D117" s="36" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="I117" s="33" t="s">
         <v>662</v>
@@ -5976,7 +5991,7 @@
       </c>
       <c r="C118" s="38"/>
       <c r="D118" s="36" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="I118" s="33" t="s">
         <v>662</v>
@@ -5991,7 +6006,7 @@
       </c>
       <c r="C119" s="38"/>
       <c r="D119" s="36" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="I119" s="33" t="s">
         <v>662</v>
@@ -6006,7 +6021,7 @@
       </c>
       <c r="C120" s="38"/>
       <c r="D120" s="36" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="I120" s="33" t="s">
         <v>662</v>
@@ -6021,7 +6036,7 @@
       </c>
       <c r="C121" s="38"/>
       <c r="D121" s="36" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="I121" s="33" t="s">
         <v>662</v>
@@ -6036,7 +6051,7 @@
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="36" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="I122" s="33" t="s">
         <v>662</v>
@@ -6051,7 +6066,7 @@
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="36" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="I123" s="33" t="s">
         <v>662</v>
@@ -6066,7 +6081,7 @@
       </c>
       <c r="C124" s="38"/>
       <c r="D124" s="36" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="I124" s="33" t="s">
         <v>662</v>
@@ -6081,7 +6096,7 @@
       </c>
       <c r="C125" s="38"/>
       <c r="D125" s="36" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="I125" s="33" t="s">
         <v>662</v>
@@ -6096,7 +6111,7 @@
       </c>
       <c r="C126" s="38"/>
       <c r="D126" s="36" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="I126" s="33" t="s">
         <v>662</v>
@@ -6111,7 +6126,7 @@
       </c>
       <c r="C127" s="38"/>
       <c r="D127" s="36" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="I127" s="33" t="s">
         <v>662</v>
@@ -6126,7 +6141,7 @@
       </c>
       <c r="C128" s="38"/>
       <c r="D128" s="36" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="I128" s="33" t="s">
         <v>662</v>
@@ -6141,7 +6156,7 @@
       </c>
       <c r="C129" s="38"/>
       <c r="D129" s="36" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="I129" s="33" t="s">
         <v>662</v>
@@ -6156,7 +6171,7 @@
       </c>
       <c r="C130" s="38"/>
       <c r="D130" s="36" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="I130" s="33" t="s">
         <v>662</v>
@@ -6171,7 +6186,7 @@
       </c>
       <c r="C131" s="38"/>
       <c r="D131" s="36" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="I131" s="33" t="s">
         <v>662</v>
@@ -6186,7 +6201,7 @@
       </c>
       <c r="C132" s="38"/>
       <c r="D132" s="36" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="I132" s="33" t="s">
         <v>662</v>
@@ -6201,7 +6216,7 @@
       </c>
       <c r="C133" s="38"/>
       <c r="D133" s="36" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="I133" s="33" t="s">
         <v>662</v>
@@ -6216,7 +6231,7 @@
       </c>
       <c r="C134" s="38"/>
       <c r="D134" s="36" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="I134" s="33" t="s">
         <v>662</v>
@@ -6231,7 +6246,7 @@
       </c>
       <c r="C135" s="38"/>
       <c r="D135" s="36" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="I135" s="33" t="s">
         <v>662</v>
@@ -6246,7 +6261,7 @@
       </c>
       <c r="C136" s="38"/>
       <c r="D136" s="36" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="I136" s="33" t="s">
         <v>662</v>
@@ -6261,7 +6276,7 @@
       </c>
       <c r="C137" s="38"/>
       <c r="D137" s="36" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="I137" s="33" t="s">
         <v>662</v>
@@ -6276,7 +6291,7 @@
       </c>
       <c r="C138" s="38"/>
       <c r="D138" s="36" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="I138" s="33" t="s">
         <v>662</v>
@@ -6291,7 +6306,7 @@
       </c>
       <c r="C139" s="38"/>
       <c r="D139" s="36" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="I139" s="33" t="s">
         <v>662</v>
@@ -6306,7 +6321,7 @@
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="36" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="I140" s="33" t="s">
         <v>662</v>
@@ -6321,7 +6336,7 @@
       </c>
       <c r="C141" s="38"/>
       <c r="D141" s="36" t="s">
-        <v>798</v>
+        <v>770</v>
       </c>
       <c r="I141" s="33" t="s">
         <v>662</v>
@@ -6336,7 +6351,7 @@
       </c>
       <c r="C142" s="38"/>
       <c r="D142" s="36" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="I142" s="33" t="s">
         <v>662</v>
@@ -6351,7 +6366,7 @@
       </c>
       <c r="C143" s="38"/>
       <c r="D143" s="36" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="I143" s="33" t="s">
         <v>662</v>
@@ -6362,11 +6377,11 @@
         <v>537</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="C144" s="38"/>
       <c r="D144" s="36" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="I144" s="33" t="s">
         <v>662</v>
@@ -6381,7 +6396,7 @@
       </c>
       <c r="C145" s="38"/>
       <c r="D145" s="36" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="I145" s="33" t="s">
         <v>662</v>
@@ -6396,7 +6411,7 @@
       </c>
       <c r="C146" s="38"/>
       <c r="D146" s="36" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="I146" s="33" t="s">
         <v>662</v>
@@ -6411,7 +6426,7 @@
       </c>
       <c r="C147" s="38"/>
       <c r="D147" s="36" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="I147" s="33" t="s">
         <v>662</v>
@@ -6426,7 +6441,7 @@
       </c>
       <c r="C148" s="38"/>
       <c r="D148" s="36" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="I148" s="33" t="s">
         <v>662</v>
@@ -6441,7 +6456,7 @@
       </c>
       <c r="C149" s="38"/>
       <c r="D149" s="36" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="I149" s="33" t="s">
         <v>662</v>
@@ -6456,7 +6471,7 @@
       </c>
       <c r="C150" s="38"/>
       <c r="D150" s="36" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="I150" s="33" t="s">
         <v>662</v>
@@ -6464,29 +6479,29 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B151" s="28" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="C151" s="29"/>
       <c r="D151" s="27" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B152" s="28" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="C152" s="29"/>
       <c r="D152" s="27" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B153" s="28" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="C153" s="29"/>
       <c r="D153" s="28" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
@@ -6498,7 +6513,7 @@
       </c>
       <c r="C154" s="38"/>
       <c r="D154" s="36" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="I154" s="33" t="s">
         <v>662</v>
@@ -6513,7 +6528,7 @@
       </c>
       <c r="C155" s="38"/>
       <c r="D155" s="36" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="I155" s="33" t="s">
         <v>662</v>
@@ -6528,7 +6543,7 @@
       </c>
       <c r="C156" s="38"/>
       <c r="D156" s="36" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="I156" s="33" t="s">
         <v>662</v>
@@ -6543,7 +6558,7 @@
       </c>
       <c r="C157" s="38"/>
       <c r="D157" s="36" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="I157" s="33" t="s">
         <v>662</v>
@@ -6558,7 +6573,7 @@
       </c>
       <c r="C158" s="38"/>
       <c r="D158" s="36" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="I158" s="33" t="s">
         <v>662</v>
@@ -6573,7 +6588,7 @@
       </c>
       <c r="C159" s="38"/>
       <c r="D159" s="36" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="I159" s="33" t="s">
         <v>662</v>
@@ -6588,7 +6603,7 @@
       </c>
       <c r="C160" s="38"/>
       <c r="D160" s="36" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="I160" s="33" t="s">
         <v>663</v>
@@ -6603,7 +6618,7 @@
       </c>
       <c r="C161" s="38"/>
       <c r="D161" s="36" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="I161" s="33" t="s">
         <v>662</v>
@@ -6618,7 +6633,7 @@
       </c>
       <c r="C162" s="38"/>
       <c r="D162" s="36" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="I162" s="33" t="s">
         <v>662</v>
@@ -6633,7 +6648,7 @@
       </c>
       <c r="C163" s="38"/>
       <c r="D163" s="36" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="I163" s="33" t="s">
         <v>662</v>
@@ -6648,7 +6663,7 @@
       </c>
       <c r="C164" s="38"/>
       <c r="D164" s="36" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="I164" s="33" t="s">
         <v>662</v>
@@ -6663,7 +6678,7 @@
       </c>
       <c r="C165" s="38"/>
       <c r="D165" s="36" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="I165" s="33" t="s">
         <v>662</v>
@@ -6678,7 +6693,7 @@
       </c>
       <c r="C166" s="38"/>
       <c r="D166" s="36" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="I166" s="33" t="s">
         <v>662</v>
@@ -6693,7 +6708,7 @@
       </c>
       <c r="C167" s="38"/>
       <c r="D167" s="36" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="I167" s="33" t="s">
         <v>662</v>
@@ -6708,7 +6723,7 @@
       </c>
       <c r="C168" s="38"/>
       <c r="D168" s="36" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="I168" s="33" t="s">
         <v>662</v>
@@ -6723,7 +6738,7 @@
       </c>
       <c r="C169" s="38"/>
       <c r="D169" s="36" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="I169" s="33" t="s">
         <v>662</v>
@@ -6738,7 +6753,7 @@
       </c>
       <c r="C170" s="38"/>
       <c r="D170" s="36" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="I170" s="33" t="s">
         <v>662</v>
@@ -6753,7 +6768,7 @@
       </c>
       <c r="C171" s="38"/>
       <c r="D171" s="36" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="I171" s="33" t="s">
         <v>662</v>
@@ -6768,7 +6783,7 @@
       </c>
       <c r="C172" s="38"/>
       <c r="D172" s="36" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="I172" s="33" t="s">
         <v>662</v>
@@ -6783,7 +6798,7 @@
       </c>
       <c r="C173" s="38"/>
       <c r="D173" s="36" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="I173" s="33" t="s">
         <v>662</v>
@@ -6798,7 +6813,7 @@
       </c>
       <c r="C174" s="38"/>
       <c r="D174" s="36" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="I174" s="33" t="s">
         <v>662</v>
@@ -6813,7 +6828,7 @@
       </c>
       <c r="C175" s="38"/>
       <c r="D175" s="36" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="I175" s="33" t="s">
         <v>662</v>
@@ -6828,7 +6843,7 @@
       </c>
       <c r="C176" s="38"/>
       <c r="D176" s="36" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="I176" s="33" t="s">
         <v>662</v>
@@ -6843,7 +6858,7 @@
       </c>
       <c r="C177" s="38"/>
       <c r="D177" s="36" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="I177" s="33" t="s">
         <v>662</v>
@@ -6858,7 +6873,7 @@
       </c>
       <c r="C178" s="38"/>
       <c r="D178" s="36" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="I178" s="33" t="s">
         <v>663</v>
@@ -6873,7 +6888,7 @@
       </c>
       <c r="C179" s="38"/>
       <c r="D179" s="36" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="I179" s="33" t="s">
         <v>662</v>
@@ -6888,7 +6903,7 @@
       </c>
       <c r="C180" s="38"/>
       <c r="D180" s="36" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="I180" s="33" t="s">
         <v>662</v>
@@ -6903,7 +6918,7 @@
       </c>
       <c r="C181" s="38"/>
       <c r="D181" s="36" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="I181" s="33" t="s">
         <v>662</v>
@@ -6918,7 +6933,7 @@
       </c>
       <c r="C182" s="38"/>
       <c r="D182" s="36" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="I182" s="33" t="s">
         <v>662</v>
@@ -6933,7 +6948,7 @@
       </c>
       <c r="C183" s="38"/>
       <c r="D183" s="36" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="I183" s="33" t="s">
         <v>662</v>
@@ -6948,7 +6963,7 @@
       </c>
       <c r="C184" s="38"/>
       <c r="D184" s="36" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="I184" s="33" t="s">
         <v>662</v>
@@ -6963,7 +6978,7 @@
       </c>
       <c r="C185" s="38"/>
       <c r="D185" s="36" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="I185" s="33" t="s">
         <v>662</v>
@@ -6978,7 +6993,7 @@
       </c>
       <c r="C186" s="38"/>
       <c r="D186" s="36" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="I186" s="33" t="s">
         <v>662</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain - 複製.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobMain - 複製.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD36AA7-CA99-45DC-A80B-803ED02B18FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044D89F-2056-4B26-9EC0-D7AA7941E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="850" windowWidth="13150" windowHeight="9920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1776,380 +1776,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>sLY002Batch</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLY003Batch</t>
-  </si>
-  <si>
-    <t>sLY004Batch</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLY005</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM002</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM003Batch</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM004Batch</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM007</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM008</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM009</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM011Batch</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM012Batch</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM013Batch</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM014Batch</t>
-  </si>
-  <si>
-    <t>sLM015</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM016Batch</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM017</t>
-  </si>
-  <si>
-    <t>sLM018</t>
-  </si>
-  <si>
-    <t>sLM019</t>
-  </si>
-  <si>
-    <t>sLM022</t>
-  </si>
-  <si>
-    <t>sLM023</t>
-  </si>
-  <si>
-    <t>sLM025</t>
-  </si>
-  <si>
-    <t>sLM027</t>
-  </si>
-  <si>
-    <t>sLM028</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM029</t>
-  </si>
-  <si>
-    <t>sLM030Batch</t>
-  </si>
-  <si>
-    <t>sLM031Batch</t>
-  </si>
-  <si>
-    <t>sLM032</t>
-  </si>
-  <si>
-    <t>sLM033Batch</t>
-  </si>
-  <si>
-    <t>sLM034</t>
-  </si>
-  <si>
-    <t>sLM035</t>
-  </si>
-  <si>
-    <t>sLM036</t>
-  </si>
-  <si>
-    <t>sLM037</t>
-  </si>
-  <si>
-    <t>sLM038</t>
-  </si>
-  <si>
-    <t>sLM039</t>
-  </si>
-  <si>
-    <t>sLM040</t>
-  </si>
-  <si>
-    <t>sLM041</t>
-  </si>
-  <si>
-    <t>sLM042Batch</t>
-  </si>
-  <si>
-    <t>sLM043</t>
-  </si>
-  <si>
-    <t>sLM044</t>
-  </si>
-  <si>
-    <t>sLM045</t>
-  </si>
-  <si>
-    <t>sLM046</t>
-  </si>
-  <si>
-    <t>sLM047</t>
-  </si>
-  <si>
-    <t>sLM049</t>
-  </si>
-  <si>
-    <t>sLM050</t>
-  </si>
-  <si>
-    <t>sLM051</t>
-  </si>
-  <si>
-    <t>sLM052</t>
-  </si>
-  <si>
-    <t>sLM053</t>
-  </si>
-  <si>
-    <t>sLM054</t>
-  </si>
-  <si>
-    <t>sLM055</t>
-  </si>
-  <si>
-    <t>sLM056</t>
-  </si>
-  <si>
-    <t>sLM057</t>
-  </si>
-  <si>
-    <t>sLM058</t>
-  </si>
-  <si>
-    <t>sLM059</t>
-  </si>
-  <si>
-    <t>sLM060</t>
-  </si>
-  <si>
-    <t>sLM061</t>
-  </si>
-  <si>
-    <t>sLM062</t>
-  </si>
-  <si>
-    <t>sLM063</t>
-  </si>
-  <si>
-    <t>sLM064</t>
-  </si>
-  <si>
-    <t>sLM065</t>
-  </si>
-  <si>
-    <t>sLM066</t>
-  </si>
-  <si>
-    <t>sLM067</t>
-  </si>
-  <si>
-    <t>sLM070Batch</t>
-  </si>
-  <si>
-    <t>sLM071</t>
-  </si>
-  <si>
-    <t>sLM073</t>
-  </si>
-  <si>
-    <t>sLM075</t>
-  </si>
-  <si>
-    <t>sLM076</t>
-  </si>
-  <si>
-    <t>sLM078</t>
-  </si>
-  <si>
-    <t>sLM079</t>
-  </si>
-  <si>
-    <t>sLM080</t>
-  </si>
-  <si>
-    <t>sLM081</t>
-  </si>
-  <si>
-    <t>sLM082</t>
-  </si>
-  <si>
-    <t>sLM085Batch</t>
-  </si>
-  <si>
-    <t>sLP001</t>
-  </si>
-  <si>
-    <t>sLP002</t>
-  </si>
-  <si>
-    <t>sLP004</t>
-  </si>
-  <si>
-    <t>sLP003</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLB201</t>
-  </si>
-  <si>
-    <t>sLP005</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLB207</t>
-  </si>
-  <si>
-    <t>sLB080</t>
-  </si>
-  <si>
-    <t>sLB085</t>
-  </si>
-  <si>
-    <t>sLB087</t>
-  </si>
-  <si>
-    <t>sLB090</t>
-  </si>
-  <si>
-    <t>sLB092</t>
-  </si>
-  <si>
-    <t>sLB093</t>
-  </si>
-  <si>
-    <t>sLB094</t>
-  </si>
-  <si>
-    <t>sLB095</t>
-  </si>
-  <si>
-    <t>sLB096</t>
-  </si>
-  <si>
-    <t>sLB680</t>
-  </si>
-  <si>
-    <t>sLBRel</t>
-  </si>
-  <si>
-    <t>sLNM34AP</t>
-  </si>
-  <si>
-    <t>sLNM34BP</t>
-  </si>
-  <si>
-    <t>sLNM34CP</t>
-  </si>
-  <si>
-    <t>sLNM34DP</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLNM34EP</t>
-  </si>
-  <si>
-    <t>sLNM34GP</t>
-  </si>
-  <si>
-    <t>sLNM39AP</t>
-  </si>
-  <si>
-    <t>sLNM39BP</t>
-  </si>
-  <si>
-    <t>sLNM39CP</t>
-  </si>
-  <si>
-    <t>sLNM39DP</t>
-  </si>
-  <si>
-    <t>sLNM39FP</t>
-  </si>
-  <si>
-    <t>sLNM39GP</t>
-  </si>
-  <si>
-    <t>sLNM39HP</t>
-  </si>
-  <si>
-    <t>sLNM39IP</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLNM39JP</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLD004Batch</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLD003</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLD005Batch</t>
-  </si>
-  <si>
-    <t>sLD006Batch</t>
-  </si>
-  <si>
-    <t>sLD007Batch</t>
-  </si>
-  <si>
-    <t>sLD008Batch</t>
-  </si>
-  <si>
-    <t>sLD009</t>
-  </si>
-  <si>
-    <t>sLD010Batch</t>
-  </si>
-  <si>
-    <t>sLW003</t>
-  </si>
-  <si>
-    <t>sLB211</t>
-  </si>
-  <si>
     <t>dailyRptFlow</t>
   </si>
   <si>
@@ -2458,10 +2084,6 @@
   </si>
   <si>
     <t>確認</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLM077</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -2535,10 +2157,6 @@
   </si>
   <si>
     <t>(日報批次)LW003 房貸獎勵費用率統計表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>sLB204</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -2684,34 +2302,6 @@
   </si>
   <si>
     <t>(日報批次)LD003 放款明細餘額總表(日)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD004 企金戶還本收據及繳息收據</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD005 暫收支票收據列印（個人戶）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD006 三階放款明細統計</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD007 放款專員明細統計</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD008 放款餘額總表,關係人放款餘額總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD009 放款授信日報表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>(日報批次)LD010 介紹人換算業績報酬檢核表</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -2884,6 +2474,411 @@
   </si>
   <si>
     <t>(月底報表產表批次)LM003 撥款/還款金額比較月報表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LY002</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LY004</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LY003</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LY005</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM001</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM002</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM003</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM004</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM007</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM008</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM009</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM011</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM012</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM013</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM014</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM015</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM016</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM017</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM018</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM019</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM022</t>
+  </si>
+  <si>
+    <t>LM023</t>
+  </si>
+  <si>
+    <t>LM025</t>
+  </si>
+  <si>
+    <t>LM027</t>
+  </si>
+  <si>
+    <t>LM028</t>
+  </si>
+  <si>
+    <t>LM029</t>
+  </si>
+  <si>
+    <t>LM030</t>
+  </si>
+  <si>
+    <t>LM031</t>
+  </si>
+  <si>
+    <t>LM032</t>
+  </si>
+  <si>
+    <t>LM033</t>
+  </si>
+  <si>
+    <t>LM034</t>
+  </si>
+  <si>
+    <t>LM035</t>
+  </si>
+  <si>
+    <t>LM036</t>
+  </si>
+  <si>
+    <t>LM037</t>
+  </si>
+  <si>
+    <t>LM038</t>
+  </si>
+  <si>
+    <t>LM039</t>
+  </si>
+  <si>
+    <t>LM040</t>
+  </si>
+  <si>
+    <t>LM041</t>
+  </si>
+  <si>
+    <t>LM042</t>
+  </si>
+  <si>
+    <t>LM043</t>
+  </si>
+  <si>
+    <t>LM044</t>
+  </si>
+  <si>
+    <t>LM045</t>
+  </si>
+  <si>
+    <t>LM046</t>
+  </si>
+  <si>
+    <t>LM047</t>
+  </si>
+  <si>
+    <t>LM049</t>
+  </si>
+  <si>
+    <t>LM050</t>
+  </si>
+  <si>
+    <t>LM051</t>
+  </si>
+  <si>
+    <t>LM052</t>
+  </si>
+  <si>
+    <t>LM053</t>
+  </si>
+  <si>
+    <t>LM054</t>
+  </si>
+  <si>
+    <t>LM055</t>
+  </si>
+  <si>
+    <t>LM056</t>
+  </si>
+  <si>
+    <t>LM057</t>
+  </si>
+  <si>
+    <t>LM058</t>
+  </si>
+  <si>
+    <t>LM059</t>
+  </si>
+  <si>
+    <t>LM060</t>
+  </si>
+  <si>
+    <t>LM061</t>
+  </si>
+  <si>
+    <t>LM062</t>
+  </si>
+  <si>
+    <t>LM063</t>
+  </si>
+  <si>
+    <t>LM064</t>
+  </si>
+  <si>
+    <t>LM065</t>
+  </si>
+  <si>
+    <t>LM066</t>
+  </si>
+  <si>
+    <t>LM067</t>
+  </si>
+  <si>
+    <t>LM070</t>
+  </si>
+  <si>
+    <t>LM071</t>
+  </si>
+  <si>
+    <t>LM073</t>
+  </si>
+  <si>
+    <t>LM075</t>
+  </si>
+  <si>
+    <t>LM076</t>
+  </si>
+  <si>
+    <t>LM077</t>
+  </si>
+  <si>
+    <t>LM078</t>
+  </si>
+  <si>
+    <t>LM079</t>
+  </si>
+  <si>
+    <t>LM080</t>
+  </si>
+  <si>
+    <t>LM081</t>
+  </si>
+  <si>
+    <t>LM082</t>
+  </si>
+  <si>
+    <t>LM085</t>
+  </si>
+  <si>
+    <t>LP001</t>
+  </si>
+  <si>
+    <t>LP002</t>
+  </si>
+  <si>
+    <t>LP003</t>
+  </si>
+  <si>
+    <t>LP004</t>
+  </si>
+  <si>
+    <t>LP005</t>
+  </si>
+  <si>
+    <t>LB201</t>
+  </si>
+  <si>
+    <t>LB207</t>
+  </si>
+  <si>
+    <t>LB080</t>
+  </si>
+  <si>
+    <t>LB085</t>
+  </si>
+  <si>
+    <t>LB087</t>
+  </si>
+  <si>
+    <t>LB090</t>
+  </si>
+  <si>
+    <t>LB092</t>
+  </si>
+  <si>
+    <t>LB093</t>
+  </si>
+  <si>
+    <t>LB094</t>
+  </si>
+  <si>
+    <t>LB095</t>
+  </si>
+  <si>
+    <t>LB096</t>
+  </si>
+  <si>
+    <t>LB680</t>
+  </si>
+  <si>
+    <t>LBRel</t>
+  </si>
+  <si>
+    <t>LNM34AP</t>
+  </si>
+  <si>
+    <t>LNM34BP</t>
+  </si>
+  <si>
+    <t>LNM34CP</t>
+  </si>
+  <si>
+    <t>LNM34DP</t>
+  </si>
+  <si>
+    <t>LNM34EP</t>
+  </si>
+  <si>
+    <t>LNM34GP</t>
+  </si>
+  <si>
+    <t>LNM39AP</t>
+  </si>
+  <si>
+    <t>LNM39BP</t>
+  </si>
+  <si>
+    <t>LNM39CP</t>
+  </si>
+  <si>
+    <t>LNM39DP</t>
+  </si>
+  <si>
+    <t>LNM39FP</t>
+  </si>
+  <si>
+    <t>LNM39GP</t>
+  </si>
+  <si>
+    <t>LNM39HP</t>
+  </si>
+  <si>
+    <t>LNM39IP</t>
+  </si>
+  <si>
+    <t>LNM39JP</t>
+  </si>
+  <si>
+    <t>LD003</t>
+  </si>
+  <si>
+    <t>LD004</t>
+  </si>
+  <si>
+    <t>LD005</t>
+  </si>
+  <si>
+    <t>LD006</t>
+  </si>
+  <si>
+    <t>LD007</t>
+  </si>
+  <si>
+    <t>LD008</t>
+  </si>
+  <si>
+    <t>LD009</t>
+  </si>
+  <si>
+    <t>LD010</t>
+  </si>
+  <si>
+    <t>LW003</t>
+  </si>
+  <si>
+    <t>LB204</t>
+  </si>
+  <si>
+    <t>LB211</t>
+  </si>
+  <si>
+    <t>(日報批次)L9742(原LD004) 企金戶還本收據及繳息收據</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)L9743(原LD005)暫收支票收據列印(個人戶)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)L9744(原LD006) 三階放款明細統計</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)L9745(原LD007) 放款專員明細統計</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)L9746(原LD010) 介紹人換算業績報酬檢核表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)L9137 (原LD008) 放款餘額總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(日報批次)L9138 (原LD009) 放款授信日報表</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3989,8 +3984,8 @@
   <dimension ref="A1:I548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -4007,7 +4002,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>737</v>
+        <v>620</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>26</v>
@@ -4028,10 +4023,10 @@
         <v>49</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>669</v>
+        <v>552</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>670</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -4045,10 +4040,10 @@
         <v>157</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>771</v>
+        <v>652</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>785</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -4068,7 +4063,7 @@
         <v>48</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -4088,7 +4083,7 @@
         <v>48</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -4108,7 +4103,7 @@
         <v>48</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -4128,7 +4123,7 @@
         <v>48</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -4139,10 +4134,10 @@
         <v>530</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>782</v>
+        <v>656</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -4162,7 +4157,7 @@
         <v>48</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -4182,7 +4177,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -4193,10 +4188,10 @@
         <v>531</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>656</v>
+        <v>539</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -4207,10 +4202,10 @@
         <v>532</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>657</v>
+        <v>540</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -4221,10 +4216,10 @@
         <v>533</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>659</v>
+        <v>542</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -4235,10 +4230,10 @@
         <v>534</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>658</v>
+        <v>541</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -4249,10 +4244,10 @@
         <v>535</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>660</v>
+        <v>543</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>671</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -4260,13 +4255,13 @@
         <v>537</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>646</v>
+        <v>798</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>774</v>
+        <v>655</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -4274,13 +4269,13 @@
         <v>537</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>645</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>775</v>
+        <v>799</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>809</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -4288,13 +4283,13 @@
         <v>537</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>776</v>
+        <v>800</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>810</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -4302,13 +4297,13 @@
         <v>537</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>648</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>777</v>
+        <v>801</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>811</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -4316,13 +4311,13 @@
         <v>537</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>649</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>778</v>
+        <v>802</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>812</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -4330,13 +4325,13 @@
         <v>537</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>650</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>779</v>
+        <v>803</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>814</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -4344,13 +4339,13 @@
         <v>537</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>651</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>780</v>
+        <v>804</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>815</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -4358,13 +4353,13 @@
         <v>537</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>781</v>
+        <v>805</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>813</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -4372,13 +4367,13 @@
         <v>537</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>653</v>
+        <v>806</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>747</v>
+        <v>629</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -4386,13 +4381,13 @@
         <v>537</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>748</v>
+        <v>807</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>772</v>
+        <v>653</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>786</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -4400,13 +4395,13 @@
         <v>537</v>
       </c>
       <c r="B25" s="33" t="s">
+        <v>808</v>
+      </c>
+      <c r="D25" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>773</v>
-      </c>
       <c r="I25" s="33" t="s">
-        <v>655</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -4426,7 +4421,7 @@
         <v>48</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -4440,13 +4435,13 @@
         <v>36</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>767</v>
+        <v>648</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>48</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -4460,13 +4455,13 @@
         <v>36</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>787</v>
+        <v>661</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>48</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -4486,7 +4481,7 @@
         <v>48</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -4500,13 +4495,13 @@
         <v>36</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>783</v>
+        <v>657</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>48</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -4520,13 +4515,13 @@
         <v>65</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>784</v>
+        <v>658</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>48</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -4546,7 +4541,7 @@
         <v>119</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -4566,7 +4561,7 @@
         <v>119</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -4586,7 +4581,7 @@
         <v>119</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -4606,7 +4601,7 @@
         <v>48</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -4626,7 +4621,7 @@
         <v>48</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -4646,7 +4641,7 @@
         <v>48</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -4666,7 +4661,7 @@
         <v>48</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -4686,7 +4681,7 @@
         <v>48</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -4706,7 +4701,7 @@
         <v>48</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -4726,7 +4721,7 @@
         <v>48</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -4746,7 +4741,7 @@
         <v>48</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -4766,7 +4761,7 @@
         <v>48</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -4786,7 +4781,7 @@
         <v>48</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -4806,7 +4801,7 @@
         <v>48</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -4826,7 +4821,7 @@
         <v>48</v>
       </c>
       <c r="I46" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -4846,7 +4841,7 @@
         <v>48</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -4866,7 +4861,7 @@
         <v>48</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -4886,7 +4881,7 @@
         <v>48</v>
       </c>
       <c r="I49" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -4906,7 +4901,7 @@
         <v>48</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -4926,7 +4921,7 @@
         <v>48</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -4946,7 +4941,7 @@
         <v>48</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -4966,7 +4961,7 @@
         <v>48</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -4986,7 +4981,7 @@
         <v>48</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -5006,7 +5001,7 @@
         <v>48</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -5026,7 +5021,7 @@
         <v>48</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
@@ -5046,7 +5041,7 @@
         <v>48</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -5066,7 +5061,7 @@
         <v>48</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -5086,7 +5081,7 @@
         <v>48</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -5106,7 +5101,7 @@
         <v>48</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -5126,7 +5121,7 @@
         <v>48</v>
       </c>
       <c r="I61" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -5146,7 +5141,7 @@
         <v>48</v>
       </c>
       <c r="I62" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -5166,7 +5161,7 @@
         <v>48</v>
       </c>
       <c r="I63" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -5186,7 +5181,7 @@
         <v>48</v>
       </c>
       <c r="I64" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -5206,7 +5201,7 @@
         <v>48</v>
       </c>
       <c r="I65" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -5214,13 +5209,13 @@
         <v>537</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>661</v>
+        <v>544</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>663</v>
+        <v>546</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -5228,13 +5223,13 @@
         <v>537</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>664</v>
+        <v>547</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>665</v>
+        <v>548</v>
       </c>
       <c r="I67" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -5242,13 +5237,13 @@
         <v>537</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>666</v>
+        <v>549</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>668</v>
+        <v>551</v>
       </c>
       <c r="I68" s="33" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="51" x14ac:dyDescent="0.4">
@@ -5268,7 +5263,7 @@
         <v>48</v>
       </c>
       <c r="I69" s="33" t="s">
-        <v>667</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -5276,14 +5271,14 @@
         <v>537</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>673</v>
+        <v>556</v>
       </c>
       <c r="C70" s="38"/>
       <c r="D70" s="33" t="s">
-        <v>675</v>
+        <v>558</v>
       </c>
       <c r="I70" s="33" t="s">
-        <v>667</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
@@ -5339,14 +5334,14 @@
         <v>537</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>538</v>
+        <v>690</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="36" t="s">
-        <v>676</v>
+        <v>559</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>674</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
@@ -5354,14 +5349,14 @@
         <v>537</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>539</v>
+        <v>692</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="36" t="s">
-        <v>677</v>
+        <v>560</v>
       </c>
       <c r="I75" s="33" t="s">
-        <v>674</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
@@ -5369,14 +5364,14 @@
         <v>537</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>540</v>
+        <v>691</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="36" t="s">
-        <v>678</v>
+        <v>561</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>674</v>
+        <v>557</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
@@ -5384,32 +5379,32 @@
         <v>537</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>541</v>
+        <v>693</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="36" t="s">
-        <v>679</v>
+        <v>562</v>
       </c>
       <c r="I77" s="33" t="s">
-        <v>674</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B78" s="28" t="s">
-        <v>745</v>
+        <v>627</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="28" t="s">
-        <v>768</v>
+        <v>649</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B79" s="28" t="s">
-        <v>746</v>
+        <v>628</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="28" t="s">
-        <v>769</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
@@ -5417,14 +5412,14 @@
         <v>537</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>542</v>
+        <v>694</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="36" t="s">
-        <v>680</v>
+        <v>563</v>
       </c>
       <c r="I80" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
@@ -5432,14 +5427,14 @@
         <v>537</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>543</v>
+        <v>695</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="36" t="s">
-        <v>681</v>
+        <v>564</v>
       </c>
       <c r="I81" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
@@ -5447,14 +5442,14 @@
         <v>537</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>544</v>
+        <v>696</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="36" t="s">
-        <v>815</v>
+        <v>689</v>
       </c>
       <c r="I82" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
@@ -5462,14 +5457,14 @@
         <v>537</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>545</v>
+        <v>697</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="36" t="s">
-        <v>814</v>
+        <v>688</v>
       </c>
       <c r="I83" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
@@ -5477,14 +5472,14 @@
         <v>537</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>546</v>
+        <v>698</v>
       </c>
       <c r="C84" s="38"/>
       <c r="D84" s="36" t="s">
-        <v>682</v>
+        <v>565</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
@@ -5492,14 +5487,14 @@
         <v>537</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>547</v>
+        <v>699</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="36" t="s">
-        <v>683</v>
+        <v>566</v>
       </c>
       <c r="I85" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
@@ -5507,14 +5502,14 @@
         <v>537</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>548</v>
+        <v>700</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="36" t="s">
-        <v>684</v>
+        <v>567</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
@@ -5522,14 +5517,14 @@
         <v>537</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>549</v>
+        <v>701</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="36" t="s">
-        <v>811</v>
+        <v>685</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
@@ -5537,14 +5532,14 @@
         <v>537</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>550</v>
+        <v>702</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="36" t="s">
-        <v>812</v>
+        <v>686</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
@@ -5552,14 +5547,14 @@
         <v>537</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>551</v>
+        <v>703</v>
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="36" t="s">
-        <v>813</v>
+        <v>687</v>
       </c>
       <c r="I89" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
@@ -5567,14 +5562,14 @@
         <v>537</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>552</v>
+        <v>704</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="36" t="s">
-        <v>810</v>
+        <v>684</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
@@ -5582,14 +5577,14 @@
         <v>537</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>553</v>
+        <v>705</v>
       </c>
       <c r="C91" s="38"/>
       <c r="D91" s="36" t="s">
-        <v>685</v>
+        <v>568</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
@@ -5597,14 +5592,14 @@
         <v>537</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>554</v>
+        <v>706</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="36" t="s">
-        <v>808</v>
+        <v>682</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
@@ -5612,14 +5607,14 @@
         <v>537</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>555</v>
+        <v>707</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="36" t="s">
-        <v>809</v>
+        <v>683</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
@@ -5627,14 +5622,14 @@
         <v>537</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>556</v>
+        <v>708</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="36" t="s">
-        <v>686</v>
+        <v>569</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
@@ -5642,14 +5637,14 @@
         <v>537</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>557</v>
+        <v>709</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="36" t="s">
-        <v>687</v>
+        <v>570</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
@@ -5657,14 +5652,14 @@
         <v>537</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>558</v>
+        <v>710</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="36" t="s">
-        <v>688</v>
+        <v>571</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
@@ -5672,14 +5667,14 @@
         <v>537</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>559</v>
+        <v>711</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="36" t="s">
-        <v>689</v>
+        <v>572</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
@@ -5687,14 +5682,14 @@
         <v>537</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>560</v>
+        <v>712</v>
       </c>
       <c r="C98" s="38"/>
       <c r="D98" s="36" t="s">
-        <v>690</v>
+        <v>573</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
@@ -5702,14 +5697,14 @@
         <v>537</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>561</v>
+        <v>713</v>
       </c>
       <c r="C99" s="38"/>
       <c r="D99" s="36" t="s">
-        <v>691</v>
+        <v>574</v>
       </c>
       <c r="I99" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
@@ -5717,14 +5712,14 @@
         <v>537</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>562</v>
+        <v>714</v>
       </c>
       <c r="C100" s="38"/>
       <c r="D100" s="36" t="s">
-        <v>692</v>
+        <v>575</v>
       </c>
       <c r="I100" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
@@ -5732,14 +5727,14 @@
         <v>537</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>563</v>
+        <v>715</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="36" t="s">
-        <v>693</v>
+        <v>576</v>
       </c>
       <c r="I101" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
@@ -5747,14 +5742,14 @@
         <v>537</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>564</v>
+        <v>716</v>
       </c>
       <c r="C102" s="38"/>
       <c r="D102" s="36" t="s">
-        <v>803</v>
+        <v>677</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
@@ -5762,14 +5757,14 @@
         <v>537</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>565</v>
+        <v>717</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="36" t="s">
-        <v>804</v>
+        <v>678</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
@@ -5777,14 +5772,14 @@
         <v>537</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>566</v>
+        <v>718</v>
       </c>
       <c r="C104" s="38"/>
       <c r="D104" s="36" t="s">
-        <v>694</v>
+        <v>577</v>
       </c>
       <c r="I104" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
@@ -5792,14 +5787,14 @@
         <v>537</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>567</v>
+        <v>719</v>
       </c>
       <c r="C105" s="38"/>
       <c r="D105" s="36" t="s">
-        <v>805</v>
+        <v>679</v>
       </c>
       <c r="I105" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
@@ -5807,14 +5802,14 @@
         <v>537</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>568</v>
+        <v>720</v>
       </c>
       <c r="C106" s="38"/>
       <c r="D106" s="36" t="s">
-        <v>806</v>
+        <v>680</v>
       </c>
       <c r="I106" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
@@ -5822,14 +5817,14 @@
         <v>537</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>569</v>
+        <v>721</v>
       </c>
       <c r="C107" s="38"/>
       <c r="D107" s="36" t="s">
-        <v>695</v>
+        <v>578</v>
       </c>
       <c r="I107" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
@@ -5837,14 +5832,14 @@
         <v>537</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>570</v>
+        <v>722</v>
       </c>
       <c r="C108" s="38"/>
       <c r="D108" s="36" t="s">
-        <v>696</v>
+        <v>579</v>
       </c>
       <c r="I108" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
@@ -5852,14 +5847,14 @@
         <v>537</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>571</v>
+        <v>723</v>
       </c>
       <c r="C109" s="38"/>
       <c r="D109" s="36" t="s">
-        <v>697</v>
+        <v>580</v>
       </c>
       <c r="I109" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
@@ -5867,14 +5862,14 @@
         <v>537</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>572</v>
+        <v>724</v>
       </c>
       <c r="C110" s="38"/>
       <c r="D110" s="36" t="s">
-        <v>698</v>
+        <v>581</v>
       </c>
       <c r="I110" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
@@ -5882,14 +5877,14 @@
         <v>537</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>573</v>
+        <v>725</v>
       </c>
       <c r="C111" s="38"/>
       <c r="D111" s="36" t="s">
-        <v>699</v>
+        <v>582</v>
       </c>
       <c r="I111" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.4">
@@ -5897,14 +5892,14 @@
         <v>537</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>574</v>
+        <v>726</v>
       </c>
       <c r="C112" s="38"/>
       <c r="D112" s="36" t="s">
-        <v>807</v>
+        <v>681</v>
       </c>
       <c r="I112" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.4">
@@ -5912,14 +5907,14 @@
         <v>537</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>575</v>
+        <v>727</v>
       </c>
       <c r="C113" s="38"/>
       <c r="D113" s="36" t="s">
-        <v>700</v>
+        <v>583</v>
       </c>
       <c r="I113" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.4">
@@ -5927,14 +5922,14 @@
         <v>537</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>576</v>
+        <v>728</v>
       </c>
       <c r="C114" s="38"/>
       <c r="D114" s="36" t="s">
-        <v>701</v>
+        <v>584</v>
       </c>
       <c r="I114" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.4">
@@ -5942,14 +5937,14 @@
         <v>537</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>577</v>
+        <v>729</v>
       </c>
       <c r="C115" s="38"/>
       <c r="D115" s="36" t="s">
-        <v>702</v>
+        <v>585</v>
       </c>
       <c r="I115" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.4">
@@ -5957,14 +5952,14 @@
         <v>537</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>578</v>
+        <v>730</v>
       </c>
       <c r="C116" s="38"/>
       <c r="D116" s="36" t="s">
-        <v>703</v>
+        <v>586</v>
       </c>
       <c r="I116" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
@@ -5972,14 +5967,14 @@
         <v>537</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>579</v>
+        <v>731</v>
       </c>
       <c r="C117" s="38"/>
       <c r="D117" s="36" t="s">
-        <v>704</v>
+        <v>587</v>
       </c>
       <c r="I117" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
@@ -5987,14 +5982,14 @@
         <v>537</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>580</v>
+        <v>732</v>
       </c>
       <c r="C118" s="38"/>
       <c r="D118" s="36" t="s">
-        <v>705</v>
+        <v>588</v>
       </c>
       <c r="I118" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
@@ -6002,14 +5997,14 @@
         <v>537</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>581</v>
+        <v>733</v>
       </c>
       <c r="C119" s="38"/>
       <c r="D119" s="36" t="s">
-        <v>706</v>
+        <v>589</v>
       </c>
       <c r="I119" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.4">
@@ -6017,14 +6012,14 @@
         <v>537</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>582</v>
+        <v>734</v>
       </c>
       <c r="C120" s="38"/>
       <c r="D120" s="36" t="s">
-        <v>707</v>
+        <v>590</v>
       </c>
       <c r="I120" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
@@ -6032,14 +6027,14 @@
         <v>537</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>583</v>
+        <v>735</v>
       </c>
       <c r="C121" s="38"/>
       <c r="D121" s="36" t="s">
-        <v>708</v>
+        <v>591</v>
       </c>
       <c r="I121" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
@@ -6047,14 +6042,14 @@
         <v>537</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>584</v>
+        <v>736</v>
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="36" t="s">
-        <v>709</v>
+        <v>592</v>
       </c>
       <c r="I122" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.4">
@@ -6062,14 +6057,14 @@
         <v>537</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>585</v>
+        <v>737</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="36" t="s">
-        <v>710</v>
+        <v>593</v>
       </c>
       <c r="I123" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
@@ -6077,14 +6072,14 @@
         <v>537</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>586</v>
+        <v>738</v>
       </c>
       <c r="C124" s="38"/>
       <c r="D124" s="36" t="s">
-        <v>711</v>
+        <v>594</v>
       </c>
       <c r="I124" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
@@ -6092,14 +6087,14 @@
         <v>537</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>587</v>
+        <v>739</v>
       </c>
       <c r="C125" s="38"/>
       <c r="D125" s="36" t="s">
-        <v>712</v>
+        <v>595</v>
       </c>
       <c r="I125" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
@@ -6107,14 +6102,14 @@
         <v>537</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>588</v>
+        <v>740</v>
       </c>
       <c r="C126" s="38"/>
       <c r="D126" s="36" t="s">
-        <v>713</v>
+        <v>596</v>
       </c>
       <c r="I126" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
@@ -6122,14 +6117,14 @@
         <v>537</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>589</v>
+        <v>741</v>
       </c>
       <c r="C127" s="38"/>
       <c r="D127" s="36" t="s">
-        <v>714</v>
+        <v>597</v>
       </c>
       <c r="I127" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
@@ -6137,14 +6132,14 @@
         <v>537</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>590</v>
+        <v>742</v>
       </c>
       <c r="C128" s="38"/>
       <c r="D128" s="36" t="s">
-        <v>715</v>
+        <v>598</v>
       </c>
       <c r="I128" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
@@ -6152,14 +6147,14 @@
         <v>537</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>591</v>
+        <v>743</v>
       </c>
       <c r="C129" s="38"/>
       <c r="D129" s="36" t="s">
-        <v>716</v>
+        <v>599</v>
       </c>
       <c r="I129" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
@@ -6167,14 +6162,14 @@
         <v>537</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>592</v>
+        <v>744</v>
       </c>
       <c r="C130" s="38"/>
       <c r="D130" s="36" t="s">
-        <v>717</v>
+        <v>600</v>
       </c>
       <c r="I130" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
@@ -6182,14 +6177,14 @@
         <v>537</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>593</v>
+        <v>745</v>
       </c>
       <c r="C131" s="38"/>
       <c r="D131" s="36" t="s">
-        <v>718</v>
+        <v>601</v>
       </c>
       <c r="I131" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.4">
@@ -6197,14 +6192,14 @@
         <v>537</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>594</v>
+        <v>746</v>
       </c>
       <c r="C132" s="38"/>
       <c r="D132" s="36" t="s">
-        <v>719</v>
+        <v>602</v>
       </c>
       <c r="I132" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
@@ -6212,14 +6207,14 @@
         <v>537</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>595</v>
+        <v>747</v>
       </c>
       <c r="C133" s="38"/>
       <c r="D133" s="36" t="s">
-        <v>720</v>
+        <v>603</v>
       </c>
       <c r="I133" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
@@ -6227,14 +6222,14 @@
         <v>537</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>596</v>
+        <v>748</v>
       </c>
       <c r="C134" s="38"/>
       <c r="D134" s="36" t="s">
-        <v>721</v>
+        <v>604</v>
       </c>
       <c r="I134" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
@@ -6242,14 +6237,14 @@
         <v>537</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>597</v>
+        <v>749</v>
       </c>
       <c r="C135" s="38"/>
       <c r="D135" s="36" t="s">
-        <v>722</v>
+        <v>605</v>
       </c>
       <c r="I135" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
@@ -6257,14 +6252,14 @@
         <v>537</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>598</v>
+        <v>750</v>
       </c>
       <c r="C136" s="38"/>
       <c r="D136" s="36" t="s">
-        <v>723</v>
+        <v>606</v>
       </c>
       <c r="I136" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
@@ -6272,14 +6267,14 @@
         <v>537</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>599</v>
+        <v>751</v>
       </c>
       <c r="C137" s="38"/>
       <c r="D137" s="36" t="s">
-        <v>724</v>
+        <v>607</v>
       </c>
       <c r="I137" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
@@ -6287,14 +6282,14 @@
         <v>537</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>600</v>
+        <v>752</v>
       </c>
       <c r="C138" s="38"/>
       <c r="D138" s="36" t="s">
-        <v>725</v>
+        <v>608</v>
       </c>
       <c r="I138" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
@@ -6302,14 +6297,14 @@
         <v>537</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>601</v>
+        <v>753</v>
       </c>
       <c r="C139" s="38"/>
       <c r="D139" s="36" t="s">
-        <v>726</v>
+        <v>609</v>
       </c>
       <c r="I139" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
@@ -6317,14 +6312,14 @@
         <v>537</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>602</v>
+        <v>754</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="36" t="s">
-        <v>727</v>
+        <v>610</v>
       </c>
       <c r="I140" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
@@ -6332,14 +6327,14 @@
         <v>537</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>603</v>
+        <v>755</v>
       </c>
       <c r="C141" s="38"/>
       <c r="D141" s="36" t="s">
-        <v>770</v>
+        <v>651</v>
       </c>
       <c r="I141" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
@@ -6347,14 +6342,14 @@
         <v>537</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>604</v>
+        <v>756</v>
       </c>
       <c r="C142" s="38"/>
       <c r="D142" s="36" t="s">
-        <v>728</v>
+        <v>611</v>
       </c>
       <c r="I142" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
@@ -6362,14 +6357,14 @@
         <v>537</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>605</v>
+        <v>757</v>
       </c>
       <c r="C143" s="38"/>
       <c r="D143" s="36" t="s">
-        <v>729</v>
+        <v>612</v>
       </c>
       <c r="I143" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
@@ -6377,14 +6372,14 @@
         <v>537</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="C144" s="38"/>
       <c r="D144" s="36" t="s">
-        <v>730</v>
+        <v>613</v>
       </c>
       <c r="I144" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.4">
@@ -6392,14 +6387,14 @@
         <v>537</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>606</v>
+        <v>759</v>
       </c>
       <c r="C145" s="38"/>
       <c r="D145" s="36" t="s">
-        <v>731</v>
+        <v>614</v>
       </c>
       <c r="I145" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.4">
@@ -6407,14 +6402,14 @@
         <v>537</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>607</v>
+        <v>760</v>
       </c>
       <c r="C146" s="38"/>
       <c r="D146" s="36" t="s">
-        <v>732</v>
+        <v>615</v>
       </c>
       <c r="I146" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.4">
@@ -6422,14 +6417,14 @@
         <v>537</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>608</v>
+        <v>761</v>
       </c>
       <c r="C147" s="38"/>
       <c r="D147" s="36" t="s">
-        <v>733</v>
+        <v>616</v>
       </c>
       <c r="I147" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
@@ -6437,14 +6432,14 @@
         <v>537</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>609</v>
+        <v>762</v>
       </c>
       <c r="C148" s="38"/>
       <c r="D148" s="36" t="s">
-        <v>734</v>
+        <v>617</v>
       </c>
       <c r="I148" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
@@ -6452,14 +6447,14 @@
         <v>537</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>610</v>
+        <v>763</v>
       </c>
       <c r="C149" s="38"/>
       <c r="D149" s="36" t="s">
-        <v>735</v>
+        <v>618</v>
       </c>
       <c r="I149" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
@@ -6467,536 +6462,536 @@
         <v>537</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>611</v>
+        <v>764</v>
       </c>
       <c r="C150" s="38"/>
       <c r="D150" s="36" t="s">
-        <v>736</v>
+        <v>619</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B151" s="28" t="s">
-        <v>741</v>
+        <v>623</v>
       </c>
       <c r="C151" s="29"/>
       <c r="D151" s="27" t="s">
-        <v>742</v>
+        <v>624</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B152" s="28" t="s">
-        <v>740</v>
+        <v>622</v>
       </c>
       <c r="C152" s="29"/>
       <c r="D152" s="27" t="s">
-        <v>743</v>
+        <v>625</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B153" s="28" t="s">
-        <v>739</v>
+        <v>621</v>
       </c>
       <c r="C153" s="29"/>
       <c r="D153" s="28" t="s">
-        <v>744</v>
+        <v>626</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B154" s="33" t="s">
-        <v>612</v>
+      <c r="B154" t="s">
+        <v>765</v>
       </c>
       <c r="C154" s="38"/>
       <c r="D154" s="36" t="s">
-        <v>749</v>
+        <v>630</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B155" s="33" t="s">
-        <v>613</v>
+      <c r="B155" t="s">
+        <v>766</v>
       </c>
       <c r="C155" s="38"/>
       <c r="D155" s="36" t="s">
-        <v>750</v>
+        <v>631</v>
       </c>
       <c r="I155" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B156" s="33" t="s">
-        <v>615</v>
+      <c r="B156" t="s">
+        <v>767</v>
       </c>
       <c r="C156" s="38"/>
       <c r="D156" s="36" t="s">
-        <v>751</v>
+        <v>632</v>
       </c>
       <c r="I156" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B157" s="33" t="s">
-        <v>614</v>
+      <c r="B157" t="s">
+        <v>768</v>
       </c>
       <c r="C157" s="38"/>
       <c r="D157" s="36" t="s">
-        <v>752</v>
+        <v>633</v>
       </c>
       <c r="I157" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B158" s="33" t="s">
-        <v>617</v>
+      <c r="B158" t="s">
+        <v>769</v>
       </c>
       <c r="C158" s="38"/>
       <c r="D158" s="36" t="s">
-        <v>753</v>
+        <v>634</v>
       </c>
       <c r="I158" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B159" s="33" t="s">
-        <v>616</v>
+      <c r="B159" t="s">
+        <v>770</v>
       </c>
       <c r="C159" s="38"/>
       <c r="D159" s="36" t="s">
-        <v>754</v>
+        <v>635</v>
       </c>
       <c r="I159" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B160" s="33" t="s">
-        <v>618</v>
+      <c r="B160" t="s">
+        <v>771</v>
       </c>
       <c r="C160" s="38"/>
       <c r="D160" s="36" t="s">
-        <v>755</v>
+        <v>636</v>
       </c>
       <c r="I160" s="33" t="s">
-        <v>663</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B161" s="33" t="s">
-        <v>619</v>
+      <c r="B161" t="s">
+        <v>772</v>
       </c>
       <c r="C161" s="38"/>
       <c r="D161" s="36" t="s">
-        <v>756</v>
+        <v>637</v>
       </c>
       <c r="I161" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B162" s="33" t="s">
-        <v>620</v>
+      <c r="B162" t="s">
+        <v>773</v>
       </c>
       <c r="C162" s="38"/>
       <c r="D162" s="36" t="s">
-        <v>757</v>
+        <v>638</v>
       </c>
       <c r="I162" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B163" s="33" t="s">
-        <v>621</v>
+      <c r="B163" t="s">
+        <v>774</v>
       </c>
       <c r="C163" s="38"/>
       <c r="D163" s="36" t="s">
-        <v>758</v>
+        <v>639</v>
       </c>
       <c r="I163" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B164" s="33" t="s">
-        <v>622</v>
+      <c r="B164" t="s">
+        <v>775</v>
       </c>
       <c r="C164" s="38"/>
       <c r="D164" s="36" t="s">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="I164" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B165" s="33" t="s">
-        <v>623</v>
+      <c r="B165" t="s">
+        <v>776</v>
       </c>
       <c r="C165" s="38"/>
       <c r="D165" s="36" t="s">
-        <v>760</v>
+        <v>641</v>
       </c>
       <c r="I165" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B166" s="33" t="s">
-        <v>624</v>
+      <c r="B166" t="s">
+        <v>777</v>
       </c>
       <c r="C166" s="38"/>
       <c r="D166" s="36" t="s">
-        <v>761</v>
+        <v>642</v>
       </c>
       <c r="I166" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B167" s="33" t="s">
-        <v>625</v>
+      <c r="B167" t="s">
+        <v>778</v>
       </c>
       <c r="C167" s="38"/>
       <c r="D167" s="36" t="s">
-        <v>762</v>
+        <v>643</v>
       </c>
       <c r="I167" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B168" s="33" t="s">
-        <v>626</v>
+      <c r="B168" t="s">
+        <v>779</v>
       </c>
       <c r="C168" s="38"/>
       <c r="D168" s="36" t="s">
-        <v>763</v>
+        <v>644</v>
       </c>
       <c r="I168" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B169" s="33" t="s">
-        <v>627</v>
+      <c r="B169" t="s">
+        <v>780</v>
       </c>
       <c r="C169" s="38"/>
       <c r="D169" s="36" t="s">
-        <v>764</v>
+        <v>645</v>
       </c>
       <c r="I169" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B170" s="33" t="s">
-        <v>628</v>
+      <c r="B170" t="s">
+        <v>781</v>
       </c>
       <c r="C170" s="38"/>
       <c r="D170" s="36" t="s">
-        <v>765</v>
+        <v>646</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B171" s="33" t="s">
-        <v>629</v>
+      <c r="B171" t="s">
+        <v>782</v>
       </c>
       <c r="C171" s="38"/>
       <c r="D171" s="36" t="s">
-        <v>766</v>
+        <v>647</v>
       </c>
       <c r="I171" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B172" s="33" t="s">
-        <v>630</v>
+      <c r="B172" t="s">
+        <v>783</v>
       </c>
       <c r="C172" s="38"/>
       <c r="D172" s="36" t="s">
-        <v>788</v>
+        <v>662</v>
       </c>
       <c r="I172" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B173" s="33" t="s">
-        <v>631</v>
+      <c r="B173" t="s">
+        <v>784</v>
       </c>
       <c r="C173" s="38"/>
       <c r="D173" s="36" t="s">
-        <v>789</v>
+        <v>663</v>
       </c>
       <c r="I173" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B174" s="33" t="s">
-        <v>632</v>
+      <c r="B174" t="s">
+        <v>785</v>
       </c>
       <c r="C174" s="38"/>
       <c r="D174" s="36" t="s">
-        <v>790</v>
+        <v>664</v>
       </c>
       <c r="I174" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B175" s="33" t="s">
-        <v>633</v>
+      <c r="B175" t="s">
+        <v>786</v>
       </c>
       <c r="C175" s="38"/>
       <c r="D175" s="36" t="s">
-        <v>791</v>
+        <v>665</v>
       </c>
       <c r="I175" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B176" s="33" t="s">
-        <v>634</v>
+      <c r="B176" t="s">
+        <v>787</v>
       </c>
       <c r="C176" s="38"/>
       <c r="D176" s="36" t="s">
-        <v>792</v>
+        <v>666</v>
       </c>
       <c r="I176" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B177" s="33" t="s">
-        <v>635</v>
+      <c r="B177" t="s">
+        <v>788</v>
       </c>
       <c r="C177" s="38"/>
       <c r="D177" s="36" t="s">
-        <v>793</v>
+        <v>667</v>
       </c>
       <c r="I177" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B178" s="33" t="s">
-        <v>636</v>
+      <c r="B178" t="s">
+        <v>789</v>
       </c>
       <c r="C178" s="38"/>
       <c r="D178" s="36" t="s">
-        <v>794</v>
+        <v>668</v>
       </c>
       <c r="I178" s="33" t="s">
-        <v>663</v>
+        <v>546</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B179" s="33" t="s">
-        <v>637</v>
+      <c r="B179" t="s">
+        <v>790</v>
       </c>
       <c r="C179" s="38"/>
       <c r="D179" s="36" t="s">
-        <v>795</v>
+        <v>669</v>
       </c>
       <c r="I179" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B180" s="33" t="s">
-        <v>638</v>
+      <c r="B180" t="s">
+        <v>791</v>
       </c>
       <c r="C180" s="38"/>
       <c r="D180" s="36" t="s">
-        <v>796</v>
+        <v>670</v>
       </c>
       <c r="I180" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B181" s="33" t="s">
-        <v>639</v>
+      <c r="B181" t="s">
+        <v>792</v>
       </c>
       <c r="C181" s="38"/>
       <c r="D181" s="36" t="s">
-        <v>797</v>
+        <v>671</v>
       </c>
       <c r="I181" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B182" s="33" t="s">
-        <v>640</v>
+      <c r="B182" t="s">
+        <v>793</v>
       </c>
       <c r="C182" s="38"/>
       <c r="D182" s="36" t="s">
-        <v>798</v>
+        <v>672</v>
       </c>
       <c r="I182" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B183" s="33" t="s">
-        <v>641</v>
+      <c r="B183" t="s">
+        <v>794</v>
       </c>
       <c r="C183" s="38"/>
       <c r="D183" s="36" t="s">
-        <v>799</v>
+        <v>673</v>
       </c>
       <c r="I183" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B184" s="33" t="s">
-        <v>642</v>
+      <c r="B184" t="s">
+        <v>795</v>
       </c>
       <c r="C184" s="38"/>
       <c r="D184" s="36" t="s">
-        <v>800</v>
+        <v>674</v>
       </c>
       <c r="I184" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B185" s="33" t="s">
-        <v>643</v>
+      <c r="B185" t="s">
+        <v>796</v>
       </c>
       <c r="C185" s="38"/>
       <c r="D185" s="36" t="s">
-        <v>801</v>
+        <v>675</v>
       </c>
       <c r="I185" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="B186" s="33" t="s">
-        <v>644</v>
+      <c r="B186" t="s">
+        <v>797</v>
       </c>
       <c r="C186" s="38"/>
       <c r="D186" s="36" t="s">
-        <v>802</v>
+        <v>676</v>
       </c>
       <c r="I186" s="33" t="s">
-        <v>662</v>
+        <v>545</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.4">
